--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itga4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H2">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>56.3701066069701</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N2">
-        <v>56.3701066069701</v>
+        <v>0.290396</v>
       </c>
       <c r="O2">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P2">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q2">
-        <v>634.2842321071545</v>
+        <v>1.918096684638222</v>
       </c>
       <c r="R2">
-        <v>634.2842321071545</v>
+        <v>17.262870161744</v>
       </c>
       <c r="S2">
-        <v>0.004686749372823949</v>
+        <v>1.137772377823302E-05</v>
       </c>
       <c r="T2">
-        <v>0.004686749372823949</v>
+        <v>1.137772377823302E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H3">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>79.5803306052761</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N3">
-        <v>79.5803306052761</v>
+        <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P3">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q3">
-        <v>895.4488811018085</v>
+        <v>0.8802494144835555</v>
       </c>
       <c r="R3">
-        <v>895.4488811018085</v>
+        <v>7.922244730351999</v>
       </c>
       <c r="S3">
-        <v>0.006616504509276246</v>
+        <v>5.221444139993522E-06</v>
       </c>
       <c r="T3">
-        <v>0.006616504509276246</v>
+        <v>5.22144413999352E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H4">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.3693758823782</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N4">
-        <v>60.3693758823782</v>
+        <v>182.872494</v>
       </c>
       <c r="O4">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P4">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q4">
-        <v>679.2845628503344</v>
+        <v>1207.892410546024</v>
       </c>
       <c r="R4">
-        <v>679.2845628503344</v>
+        <v>10871.03169491421</v>
       </c>
       <c r="S4">
-        <v>0.005019258461354844</v>
+        <v>0.007164949666553864</v>
       </c>
       <c r="T4">
-        <v>0.005019258461354844</v>
+        <v>0.007164949666553863</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H5">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.35979924013071</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N5">
-        <v>1.35979924013071</v>
+        <v>246.670944</v>
       </c>
       <c r="O5">
-        <v>0.006878803656433702</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P5">
-        <v>0.006878803656433702</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q5">
-        <v>15.30064902768079</v>
+        <v>1629.288006318891</v>
       </c>
       <c r="R5">
-        <v>15.30064902768079</v>
+        <v>14663.59205687002</v>
       </c>
       <c r="S5">
-        <v>0.0001130570548727873</v>
+        <v>0.009664574804570267</v>
       </c>
       <c r="T5">
-        <v>0.0001130570548727873</v>
+        <v>0.009664574804570263</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>517.977351898144</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H6">
-        <v>517.977351898144</v>
+        <v>59.445964</v>
       </c>
       <c r="I6">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J6">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.3701066069701</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N6">
-        <v>56.3701066069701</v>
+        <v>190.187122</v>
       </c>
       <c r="O6">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P6">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q6">
-        <v>29198.43854649444</v>
+        <v>1256.206311963956</v>
       </c>
       <c r="R6">
-        <v>29198.43854649444</v>
+        <v>11305.85680767561</v>
       </c>
       <c r="S6">
-        <v>0.2157483295629254</v>
+        <v>0.007451537005651266</v>
       </c>
       <c r="T6">
-        <v>0.2157483295629254</v>
+        <v>0.007451537005651264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>517.977351898144</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H7">
-        <v>517.977351898144</v>
+        <v>59.445964</v>
       </c>
       <c r="I7">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J7">
-        <v>0.7565897727891929</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.5803306052761</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N7">
-        <v>79.5803306052761</v>
+        <v>4.883993</v>
       </c>
       <c r="O7">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P7">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q7">
-        <v>41220.80891009974</v>
+        <v>32.25929689491689</v>
       </c>
       <c r="R7">
-        <v>41220.80891009974</v>
+        <v>290.333672054252</v>
       </c>
       <c r="S7">
-        <v>0.304582063572516</v>
+        <v>0.000191354988666592</v>
       </c>
       <c r="T7">
-        <v>0.304582063572516</v>
+        <v>0.000191354988666592</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H8">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>60.3693758823782</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N8">
-        <v>60.3693758823782</v>
+        <v>0.290396</v>
       </c>
       <c r="O8">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P8">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q8">
-        <v>31269.96945529794</v>
+        <v>51.33228940619955</v>
       </c>
       <c r="R8">
-        <v>31269.96945529794</v>
+        <v>461.9906046557959</v>
       </c>
       <c r="S8">
-        <v>0.2310549471582688</v>
+        <v>0.0003044917466599001</v>
       </c>
       <c r="T8">
-        <v>0.2310549471582688</v>
+        <v>0.0003044917466599</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H9">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.35979924013071</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N9">
-        <v>1.35979924013071</v>
+        <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P9">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q9">
-        <v>704.3452095160136</v>
+        <v>23.55732015794089</v>
       </c>
       <c r="R9">
-        <v>704.3452095160136</v>
+        <v>212.015881421468</v>
       </c>
       <c r="S9">
-        <v>0.005204432495482644</v>
+        <v>0.0001397367942184864</v>
       </c>
       <c r="T9">
-        <v>0.005204432495482644</v>
+        <v>0.0001397367942184863</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.8465022971811</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H10">
-        <v>34.8465022971811</v>
+        <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J10">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.3701066069701</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N10">
-        <v>56.3701066069701</v>
+        <v>182.872494</v>
       </c>
       <c r="O10">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P10">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q10">
-        <v>1964.301049372127</v>
+        <v>32325.73377884506</v>
       </c>
       <c r="R10">
-        <v>1964.301049372127</v>
+        <v>290931.6040096056</v>
       </c>
       <c r="S10">
-        <v>0.01451429224497413</v>
+        <v>0.1917490775152278</v>
       </c>
       <c r="T10">
-        <v>0.01451429224497413</v>
+        <v>0.1917490775152278</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.8465022971811</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H11">
-        <v>34.8465022971811</v>
+        <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J11">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.5803306052761</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N11">
-        <v>79.5803306052761</v>
+        <v>246.670944</v>
       </c>
       <c r="O11">
-        <v>0.4025722716944274</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P11">
-        <v>0.4025722716944274</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q11">
-        <v>2773.096173247185</v>
+        <v>43603.16356116629</v>
       </c>
       <c r="R11">
-        <v>2773.096173247185</v>
+        <v>392428.4720504966</v>
       </c>
       <c r="S11">
-        <v>0.02049050897508531</v>
+        <v>0.2586442877615615</v>
       </c>
       <c r="T11">
-        <v>0.02049050897508531</v>
+        <v>0.2586442877615615</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.8465022971811</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H12">
-        <v>34.8465022971811</v>
+        <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J12">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.3693758823782</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N12">
-        <v>60.3693758823782</v>
+        <v>190.187122</v>
       </c>
       <c r="O12">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P12">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q12">
-        <v>2103.661595364681</v>
+        <v>33618.71509193027</v>
       </c>
       <c r="R12">
-        <v>2103.661595364681</v>
+        <v>302568.4358273724</v>
       </c>
       <c r="S12">
-        <v>0.01554403241265445</v>
+        <v>0.1994187556646769</v>
       </c>
       <c r="T12">
-        <v>0.01554403241265445</v>
+        <v>0.1994187556646768</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.8465022971811</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H13">
-        <v>34.8465022971811</v>
+        <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J13">
-        <v>0.05089895756814228</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.35979924013071</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N13">
-        <v>1.35979924013071</v>
+        <v>4.883993</v>
       </c>
       <c r="O13">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P13">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q13">
-        <v>47.38424734491989</v>
+        <v>863.3264305770491</v>
       </c>
       <c r="R13">
-        <v>47.38424734491989</v>
+        <v>7769.937875193444</v>
       </c>
       <c r="S13">
-        <v>0.000350123935428401</v>
+        <v>0.005121060755811807</v>
       </c>
       <c r="T13">
-        <v>0.000350123935428401</v>
+        <v>0.005121060755811807</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H14">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I14">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J14">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>56.3701066069701</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N14">
-        <v>56.3701066069701</v>
+        <v>0.290396</v>
       </c>
       <c r="O14">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P14">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q14">
-        <v>2365.625844390102</v>
+        <v>11.05006773284711</v>
       </c>
       <c r="R14">
-        <v>2365.625844390102</v>
+        <v>99.45060959562397</v>
       </c>
       <c r="S14">
-        <v>0.01747969582295782</v>
+        <v>6.554654903582887E-05</v>
       </c>
       <c r="T14">
-        <v>0.01747969582295782</v>
+        <v>6.554654903582886E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H15">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I15">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J15">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>79.5803306052761</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N15">
-        <v>79.5803306052761</v>
+        <v>0.133268</v>
       </c>
       <c r="O15">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P15">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q15">
-        <v>3339.665260836529</v>
+        <v>5.071076828265777</v>
       </c>
       <c r="R15">
-        <v>3339.665260836529</v>
+        <v>45.63969145439199</v>
       </c>
       <c r="S15">
-        <v>0.02467690867021789</v>
+        <v>3.008050213125127E-05</v>
       </c>
       <c r="T15">
-        <v>0.02467690867021789</v>
+        <v>3.008050213125126E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H16">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I16">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J16">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.3693758823782</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N16">
-        <v>60.3693758823782</v>
+        <v>182.872494</v>
       </c>
       <c r="O16">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P16">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q16">
-        <v>2533.459033398314</v>
+        <v>6958.613221858001</v>
       </c>
       <c r="R16">
-        <v>2533.459033398314</v>
+        <v>62627.51899672202</v>
       </c>
       <c r="S16">
-        <v>0.01871982139049739</v>
+        <v>0.04127694904638948</v>
       </c>
       <c r="T16">
-        <v>0.01871982139049739</v>
+        <v>0.04127694904638948</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.9659636424671</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H17">
-        <v>41.9659636424671</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I17">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J17">
-        <v>0.06129808336364732</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.35979924013071</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N17">
-        <v>1.35979924013071</v>
+        <v>246.670944</v>
       </c>
       <c r="O17">
-        <v>0.006878803656433702</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P17">
-        <v>0.006878803656433702</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q17">
-        <v>57.06528547237977</v>
+        <v>9386.254076934036</v>
       </c>
       <c r="R17">
-        <v>57.06528547237977</v>
+        <v>84476.28669240633</v>
       </c>
       <c r="S17">
-        <v>0.0004216574799742351</v>
+        <v>0.05567717574143652</v>
       </c>
       <c r="T17">
-        <v>0.0004216574799742351</v>
+        <v>0.05567717574143651</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38.8948812832746</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H18">
-        <v>38.8948812832746</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I18">
-        <v>0.05681227043023694</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J18">
-        <v>0.05681227043023694</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>56.3701066069701</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N18">
-        <v>56.3701066069701</v>
+        <v>190.187122</v>
       </c>
       <c r="O18">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P18">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q18">
-        <v>2192.508604403635</v>
+        <v>7236.947409796471</v>
       </c>
       <c r="R18">
-        <v>2192.508604403635</v>
+        <v>65132.52668816825</v>
       </c>
       <c r="S18">
-        <v>0.01620052620961874</v>
+        <v>0.04292796566810896</v>
       </c>
       <c r="T18">
-        <v>0.01620052620961874</v>
+        <v>0.04292796566810895</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38.8948812832746</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H19">
-        <v>38.8948812832746</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I19">
-        <v>0.05681227043023694</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J19">
-        <v>0.05681227043023694</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.5803306052761</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N19">
-        <v>79.5803306052761</v>
+        <v>4.883993</v>
       </c>
       <c r="O19">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P19">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q19">
-        <v>3095.267511375958</v>
+        <v>185.8443417152824</v>
       </c>
       <c r="R19">
-        <v>3095.267511375958</v>
+        <v>1672.599075437542</v>
       </c>
       <c r="S19">
-        <v>0.02287104476721863</v>
+        <v>0.001102387383659365</v>
       </c>
       <c r="T19">
-        <v>0.02287104476721863</v>
+        <v>0.001102387383659365</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>38.8948812832746</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H20">
-        <v>38.8948812832746</v>
+        <v>126.990112</v>
       </c>
       <c r="I20">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J20">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>60.3693758823782</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N20">
-        <v>60.3693758823782</v>
+        <v>0.290396</v>
       </c>
       <c r="O20">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P20">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q20">
-        <v>2348.059708090481</v>
+        <v>4.097491173816888</v>
       </c>
       <c r="R20">
-        <v>2348.059708090481</v>
+        <v>36.877420564352</v>
       </c>
       <c r="S20">
-        <v>0.01734989899983377</v>
+        <v>2.43054081333911E-05</v>
       </c>
       <c r="T20">
-        <v>0.01734989899983377</v>
+        <v>2.43054081333911E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>38.8948812832746</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H21">
-        <v>38.8948812832746</v>
+        <v>126.990112</v>
       </c>
       <c r="I21">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J21">
-        <v>0.05681227043023694</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.35979924013071</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N21">
-        <v>1.35979924013071</v>
+        <v>0.133268</v>
       </c>
       <c r="O21">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P21">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q21">
-        <v>52.88923001397097</v>
+        <v>1.880413138446222</v>
       </c>
       <c r="R21">
-        <v>52.88923001397097</v>
+        <v>16.923718246016</v>
       </c>
       <c r="S21">
-        <v>0.0003908004535658142</v>
+        <v>1.115419334674295E-05</v>
       </c>
       <c r="T21">
-        <v>0.0003908004535658142</v>
+        <v>1.115419334674295E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>39.684301501429</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H22">
-        <v>39.684301501429</v>
+        <v>126.990112</v>
       </c>
       <c r="I22">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J22">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>56.3701066069701</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N22">
-        <v>56.3701066069701</v>
+        <v>182.872494</v>
       </c>
       <c r="O22">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P22">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q22">
-        <v>2237.008306258696</v>
+        <v>2580.333166086592</v>
       </c>
       <c r="R22">
-        <v>2237.008306258696</v>
+        <v>23222.99849477933</v>
       </c>
       <c r="S22">
-        <v>0.01652933613299836</v>
+        <v>0.01530596359123788</v>
       </c>
       <c r="T22">
-        <v>0.01652933613299836</v>
+        <v>0.01530596359123788</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>39.684301501429</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H23">
-        <v>39.684301501429</v>
+        <v>126.990112</v>
       </c>
       <c r="I23">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J23">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.5803306052761</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N23">
-        <v>79.5803306052761</v>
+        <v>246.670944</v>
       </c>
       <c r="O23">
-        <v>0.4025722716944274</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P23">
-        <v>0.4025722716944274</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q23">
-        <v>3158.089833323174</v>
+        <v>3480.530089522859</v>
       </c>
       <c r="R23">
-        <v>3158.089833323174</v>
+        <v>31324.77080570573</v>
       </c>
       <c r="S23">
-        <v>0.02333524120011328</v>
+        <v>0.02064573192664108</v>
       </c>
       <c r="T23">
-        <v>0.02333524120011328</v>
+        <v>0.02064573192664107</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>39.684301501429</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H24">
-        <v>39.684301501429</v>
+        <v>126.990112</v>
       </c>
       <c r="I24">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J24">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>60.3693758823782</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N24">
-        <v>60.3693758823782</v>
+        <v>190.187122</v>
       </c>
       <c r="O24">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P24">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q24">
-        <v>2395.716513969393</v>
+        <v>2683.542658193073</v>
       </c>
       <c r="R24">
-        <v>2395.716513969393</v>
+        <v>24151.88392373766</v>
       </c>
       <c r="S24">
-        <v>0.01770203688023129</v>
+        <v>0.01591817938926516</v>
       </c>
       <c r="T24">
-        <v>0.01770203688023129</v>
+        <v>0.01591817938926516</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>39.684301501429</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H25">
-        <v>39.684301501429</v>
+        <v>126.990112</v>
       </c>
       <c r="I25">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J25">
-        <v>0.05796534645045275</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.35979924013071</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N25">
-        <v>1.35979924013071</v>
+        <v>4.883993</v>
       </c>
       <c r="O25">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P25">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q25">
-        <v>53.96268302676114</v>
+        <v>68.91320200857955</v>
       </c>
       <c r="R25">
-        <v>53.96268302676114</v>
+        <v>620.218818077216</v>
       </c>
       <c r="S25">
-        <v>0.0003987322371098207</v>
+        <v>0.0004087778178267787</v>
       </c>
       <c r="T25">
-        <v>0.0003987322371098207</v>
+        <v>0.0004087778178267787</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H26">
+        <v>138.661867</v>
+      </c>
+      <c r="I26">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J26">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.290396</v>
+      </c>
+      <c r="O26">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P26">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q26">
+        <v>4.474094614370221</v>
+      </c>
+      <c r="R26">
+        <v>40.266851529332</v>
+      </c>
+      <c r="S26">
+        <v>2.653933614904596E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.653933614904596E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H27">
+        <v>138.661867</v>
+      </c>
+      <c r="I27">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J27">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.133268</v>
+      </c>
+      <c r="O27">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P27">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q27">
+        <v>2.053243299039555</v>
+      </c>
+      <c r="R27">
+        <v>18.479189691356</v>
+      </c>
+      <c r="S27">
+        <v>1.217938349671159E-05</v>
+      </c>
+      <c r="T27">
+        <v>1.217938349671158E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H28">
+        <v>138.661867</v>
+      </c>
+      <c r="I28">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J28">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N28">
+        <v>182.872494</v>
+      </c>
+      <c r="O28">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P28">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q28">
+        <v>2817.493493442922</v>
+      </c>
+      <c r="R28">
+        <v>25357.4414409863</v>
+      </c>
+      <c r="S28">
+        <v>0.01671274601124117</v>
+      </c>
+      <c r="T28">
+        <v>0.01671274601124117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H29">
+        <v>138.661867</v>
+      </c>
+      <c r="I29">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J29">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N29">
+        <v>246.670944</v>
+      </c>
+      <c r="O29">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P29">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q29">
+        <v>3800.428181076939</v>
+      </c>
+      <c r="R29">
+        <v>34203.85362969245</v>
+      </c>
+      <c r="S29">
+        <v>0.02254329639877441</v>
+      </c>
+      <c r="T29">
+        <v>0.02254329639877441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H30">
+        <v>138.661867</v>
+      </c>
+      <c r="I30">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J30">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N30">
+        <v>190.187122</v>
+      </c>
+      <c r="O30">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P30">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q30">
+        <v>2930.18904620853</v>
+      </c>
+      <c r="R30">
+        <v>26371.70141587677</v>
+      </c>
+      <c r="S30">
+        <v>0.01738123101550164</v>
+      </c>
+      <c r="T30">
+        <v>0.01738123101550164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>46.22062233333333</v>
+      </c>
+      <c r="H31">
+        <v>138.661867</v>
+      </c>
+      <c r="I31">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="J31">
+        <v>0.05712234103418551</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N31">
+        <v>4.883993</v>
+      </c>
+      <c r="O31">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P31">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q31">
+        <v>75.24706531054788</v>
+      </c>
+      <c r="R31">
+        <v>677.2235877949311</v>
+      </c>
+      <c r="S31">
+        <v>0.0004463488890225328</v>
+      </c>
+      <c r="T31">
+        <v>0.0004463488890225328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>56.330706</v>
+      </c>
+      <c r="H32">
+        <v>168.992118</v>
+      </c>
+      <c r="I32">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J32">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N32">
+        <v>0.290396</v>
+      </c>
+      <c r="O32">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P32">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q32">
+        <v>5.452737233192</v>
+      </c>
+      <c r="R32">
+        <v>49.074635098728</v>
+      </c>
+      <c r="S32">
+        <v>3.234442693708459E-05</v>
+      </c>
+      <c r="T32">
+        <v>3.234442693708459E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>56.330706</v>
+      </c>
+      <c r="H33">
+        <v>168.992118</v>
+      </c>
+      <c r="I33">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J33">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.133268</v>
+      </c>
+      <c r="O33">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P33">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q33">
+        <v>2.502360175736</v>
+      </c>
+      <c r="R33">
+        <v>22.521241581624</v>
+      </c>
+      <c r="S33">
+        <v>1.484344511994445E-05</v>
+      </c>
+      <c r="T33">
+        <v>1.484344511994445E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>56.330706</v>
+      </c>
+      <c r="H34">
+        <v>168.992118</v>
+      </c>
+      <c r="I34">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J34">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N34">
+        <v>182.872494</v>
+      </c>
+      <c r="O34">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P34">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q34">
+        <v>3433.778898333588</v>
+      </c>
+      <c r="R34">
+        <v>30904.01008500229</v>
+      </c>
+      <c r="S34">
+        <v>0.02036841423774928</v>
+      </c>
+      <c r="T34">
+        <v>0.02036841423774928</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>56.330706</v>
+      </c>
+      <c r="H35">
+        <v>168.992118</v>
+      </c>
+      <c r="I35">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J35">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N35">
+        <v>246.670944</v>
+      </c>
+      <c r="O35">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P35">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q35">
+        <v>4631.716141735488</v>
+      </c>
+      <c r="R35">
+        <v>41685.44527561939</v>
+      </c>
+      <c r="S35">
+        <v>0.02747431206252732</v>
+      </c>
+      <c r="T35">
+        <v>0.02747431206252733</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>56.330706</v>
+      </c>
+      <c r="H36">
+        <v>168.992118</v>
+      </c>
+      <c r="I36">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J36">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N36">
+        <v>190.187122</v>
+      </c>
+      <c r="O36">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P36">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q36">
+        <v>3571.124951456044</v>
+      </c>
+      <c r="R36">
+        <v>32140.1245631044</v>
+      </c>
+      <c r="S36">
+        <v>0.02118312053851772</v>
+      </c>
+      <c r="T36">
+        <v>0.02118312053851773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>56.330706</v>
+      </c>
+      <c r="H37">
+        <v>168.992118</v>
+      </c>
+      <c r="I37">
+        <v>0.06961701587708551</v>
+      </c>
+      <c r="J37">
+        <v>0.06961701587708552</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N37">
+        <v>4.883993</v>
+      </c>
+      <c r="O37">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P37">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q37">
+        <v>91.706257929686</v>
+      </c>
+      <c r="R37">
+        <v>825.356321367174</v>
+      </c>
+      <c r="S37">
+        <v>0.0005439811662341511</v>
+      </c>
+      <c r="T37">
+        <v>0.0005439811662341512</v>
       </c>
     </row>
   </sheetData>
